--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3610.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3610.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.282448221542726</v>
+        <v>1.271060705184937</v>
       </c>
       <c r="B1">
-        <v>2.343624401286635</v>
+        <v>2.441699504852295</v>
       </c>
       <c r="C1">
-        <v>3.556577657203319</v>
+        <v>4.627000331878662</v>
       </c>
       <c r="D1">
-        <v>2.919401076028723</v>
+        <v>1.999371767044067</v>
       </c>
       <c r="E1">
-        <v>0.9175505484240923</v>
+        <v>1.140095591545105</v>
       </c>
     </row>
   </sheetData>
